--- a/latner/projects/ctgan/steps.xlsx
+++ b/latner/projects/ctgan/steps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanlatner/Documents/GitHub/KEM_GAN/latner/projects/ctgan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1F07EC-707E-D349-82F1-10237F1FCCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC6939C-F1EC-3E43-9B04-4220F009753A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{DAF802F4-7D04-4E4E-87F1-763F28679033}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{DAF802F4-7D04-4E4E-87F1-763F28679033}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C5EF4F-4B4B-5442-B5DC-AE04B102D38C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,21 +472,22 @@
         <v>5000</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
         <f>A2/B2</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>300</v>
+        <f>F2/C2</f>
+        <v>60</v>
       </c>
       <c r="E2" s="1">
         <f>C2*D2</f>
         <v>3000</v>
       </c>
       <c r="F2" s="1">
-        <f>$E$2</f>
+        <f>$E$4</f>
         <v>3000</v>
       </c>
     </row>
@@ -494,23 +495,23 @@
       <c r="A3" s="1">
         <v>5000</v>
       </c>
-      <c r="B3" s="1">
-        <v>1000</v>
+      <c r="B3">
+        <v>250</v>
       </c>
       <c r="C3" s="1">
         <f>A3/B3</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
-        <f>F3/C3</f>
-        <v>600</v>
+        <f t="shared" ref="D3" si="0">F3/C3</f>
+        <v>150</v>
       </c>
       <c r="E3" s="1">
-        <f>C3*D3</f>
+        <f t="shared" ref="E3" si="1">C3*D3</f>
         <v>3000</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F5" si="0">$E$2</f>
+        <f>$E$4</f>
         <v>3000</v>
       </c>
     </row>
@@ -519,22 +520,21 @@
         <v>5000</v>
       </c>
       <c r="B4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C4" s="1">
-        <f>A4/B4</f>
-        <v>20</v>
+        <f t="shared" ref="C4:C12" si="2">A4/B4</f>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="1">F4/C4</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E5" si="2">C4*D4</f>
+        <f>C4*D4</f>
         <v>3000</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f>$E$4</f>
         <v>3000</v>
       </c>
     </row>
@@ -542,23 +542,23 @@
       <c r="A5" s="1">
         <v>5000</v>
       </c>
-      <c r="B5">
-        <v>100</v>
+      <c r="B5" s="1">
+        <v>1000</v>
       </c>
       <c r="C5" s="1">
-        <f>A5/B5</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>F5/C5</f>
+        <v>600</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="2"/>
+        <f>C5*D5</f>
         <v>3000</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f>$E$4</f>
         <v>3000</v>
       </c>
     </row>
@@ -570,14 +570,14 @@
         <v>500</v>
       </c>
       <c r="C6" s="1">
-        <f>A6/B6</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <f>C6*D6</f>
+        <f t="shared" ref="E6:E12" si="3">C6*D6</f>
         <v>1000</v>
       </c>
     </row>
@@ -589,14 +589,14 @@
         <v>500</v>
       </c>
       <c r="C7" s="1">
-        <f>A7/B7</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>300</v>
       </c>
       <c r="E7" s="1">
-        <f>C7*D7</f>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
@@ -608,14 +608,14 @@
         <v>500</v>
       </c>
       <c r="C8" s="1">
-        <f>A8/B8</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>600</v>
       </c>
       <c r="E8" s="1">
-        <f>C8*D8</f>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
     </row>
@@ -627,14 +627,14 @@
         <v>500</v>
       </c>
       <c r="C9" s="1">
-        <f>A9/B9</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>900</v>
       </c>
       <c r="E9" s="1">
-        <f>C9*D9</f>
+        <f t="shared" si="3"/>
         <v>9000</v>
       </c>
     </row>
@@ -646,14 +646,14 @@
         <v>250</v>
       </c>
       <c r="C10" s="1">
-        <f>A10/B10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>50</v>
       </c>
       <c r="E10" s="1">
-        <f>C10*D10</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -665,14 +665,14 @@
         <v>500</v>
       </c>
       <c r="C11" s="1">
-        <f>A11/B11</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
       </c>
       <c r="E11" s="1">
-        <f>C11*D11</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -684,14 +684,14 @@
         <v>1000</v>
       </c>
       <c r="C12" s="1">
-        <f>A12/B12</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>200</v>
       </c>
       <c r="E12" s="1">
-        <f>C12*D12</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E011D2E-FE2B-D540-ACF3-40AF708419AE}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -855,14 +855,14 @@
         <v>250</v>
       </c>
       <c r="C2" s="1">
-        <f>A2/B2</f>
+        <f t="shared" ref="C2:C10" si="0">A2/B2</f>
         <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
       <c r="E2" s="1">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E10" si="1">C2*D2</f>
         <v>1000</v>
       </c>
       <c r="F2" s="2"/>
@@ -875,14 +875,14 @@
         <v>500</v>
       </c>
       <c r="C3" s="1">
-        <f>A3/B3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
       </c>
       <c r="E3" s="1">
-        <f>C3*D3</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -894,14 +894,14 @@
         <v>1000</v>
       </c>
       <c r="C4" s="1">
-        <f>A4/B4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
       </c>
       <c r="E4" s="1">
-        <f>C4*D4</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -913,14 +913,14 @@
         <v>250</v>
       </c>
       <c r="C5" s="1">
-        <f>A5/B5</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>150</v>
       </c>
       <c r="E5" s="1">
-        <f>C5*D5</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
@@ -932,14 +932,14 @@
         <v>500</v>
       </c>
       <c r="C6" s="1">
-        <f>A6/B6</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>300</v>
       </c>
       <c r="E6" s="1">
-        <f>C6*D6</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
@@ -951,14 +951,14 @@
         <v>1000</v>
       </c>
       <c r="C7" s="1">
-        <f>A7/B7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
       </c>
       <c r="E7" s="1">
-        <f>C7*D7</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
@@ -970,14 +970,14 @@
         <v>250</v>
       </c>
       <c r="C8" s="1">
-        <f>A8/B8</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>300</v>
       </c>
       <c r="E8" s="1">
-        <f>C8*D8</f>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
     </row>
@@ -989,14 +989,14 @@
         <v>500</v>
       </c>
       <c r="C9" s="1">
-        <f>A9/B9</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>600</v>
       </c>
       <c r="E9" s="1">
-        <f>C9*D9</f>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
     </row>
@@ -1008,14 +1008,14 @@
         <v>1000</v>
       </c>
       <c r="C10" s="1">
-        <f>A10/B10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>1200</v>
       </c>
       <c r="E10" s="1">
-        <f>C10*D10</f>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
     </row>
